--- a/assets_weighting.xlsx
+++ b/assets_weighting.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>BNDX</t>
   </si>
@@ -39,34 +37,27 @@
     <t>B30S70</t>
   </si>
   <si>
-    <t>B70S30_B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B70S30_O1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B70S30_O2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Portfolio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B80S20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Portfolio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B70S30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B60S40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,13 +65,6 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Noto Sans CJK TC Regular"/>
-      <family val="2"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
@@ -91,14 +75,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Noto Sans CJK TC Regular"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Noto Sans CJK TC Regular"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Noto Sans CJK TC Regular"/>
       <family val="2"/>
       <charset val="128"/>
@@ -113,7 +112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,7 +130,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -145,18 +144,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,381 +450,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:6" ht="19">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" ht="19">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
+    </row>
+    <row r="2" spans="1:6" ht="19">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="19">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="19">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="19">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="19">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="19">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="19">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="D7" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E7" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="19">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="19">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.25</v>
       </c>
-      <c r="D9" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" ht="19">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="19">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="C10" s="3">
         <v>0.25</v>
       </c>
-      <c r="C11" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="19">
-      <c r="A12" s="3" t="s">
+      <c r="D10" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B11" s="3">
         <v>0.15</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C11" s="3">
         <v>0.15</v>
       </c>
-      <c r="D12" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="D11" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.23</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>